--- a/Excel/EposLevel.xlsx
+++ b/Excel/EposLevel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27109"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4078434-9529-47C8-BFB1-0F10B911613C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{77467D6C-9992-4352-9E73-4D416860E43F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,12 +31,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Level</t>
   </si>
   <si>
     <t>TileNumber</t>
+  </si>
+  <si>
+    <t>TileInterval</t>
+  </si>
+  <si>
+    <t>TileScale</t>
   </si>
 </sst>
 </file>
@@ -388,48 +394,74 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="19.625" customWidth="1"/>
-    <col min="2" max="2" width="40.375" customWidth="1"/>
+    <col min="2" max="2" width="14.625" customWidth="1"/>
+    <col min="3" max="3" width="14.375" customWidth="1"/>
+    <col min="4" max="4" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>7</v>
       </c>
+      <c r="C2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>11</v>
       </c>
+      <c r="C3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D3">
+        <v>0.9</v>
+      </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>15</v>
+      </c>
+      <c r="C4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D4">
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
